--- a/yazilim/veri-filtreleme/ham-veriler.xlsx
+++ b/yazilim/veri-filtreleme/ham-veriler.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="167">
   <si>
     <t>Zaman damgası</t>
   </si>
@@ -510,6 +510,9 @@
   <si>
     <t>Sakarya Üniversitesi</t>
   </si>
+  <si>
+    <t>Zbeü</t>
+  </si>
 </sst>
 </file>
 
@@ -672,10 +675,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -683,13 +686,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -697,13 +700,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -877,7 +880,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z208" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z219" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="26">
     <tableColumn name="Zaman damgası" id="1"/>
     <tableColumn name="Yaşınız" id="2"/>
@@ -17441,79 +17444,932 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="31">
+      <c r="A208" s="25">
         <v>45689.917633414356</v>
       </c>
-      <c r="B208" s="32">
+      <c r="B208" s="26">
         <v>32.0</v>
       </c>
-      <c r="C208" s="32" t="s">
+      <c r="C208" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D208" s="32" t="s">
+      <c r="D208" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F208" s="32">
+      <c r="F208" s="26">
         <v>1.0</v>
       </c>
-      <c r="G208" s="32" t="s">
+      <c r="G208" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H208" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I208" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J208" s="32">
+      <c r="H208" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I208" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J208" s="26">
         <v>1.0</v>
       </c>
-      <c r="K208" s="32" t="s">
+      <c r="K208" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L208" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M208" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="N208" s="32" t="s">
+      <c r="L208" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M208" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N208" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O208" s="32" t="s">
+      <c r="O208" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="P208" s="32" t="s">
+      <c r="P208" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q208" s="32" t="s">
+      <c r="Q208" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="R208" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="S208" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="T208" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="U208" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="V208" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="W208" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="X208" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y208" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z208" s="34" t="s">
+      <c r="R208" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S208" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T208" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U208" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V208" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W208" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X208" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y208" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z208" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="21">
+        <v>45691.63689692129</v>
+      </c>
+      <c r="B209" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F209" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G209" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J209" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K209" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N209" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O209" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P209" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q209" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z209" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="25">
+        <v>45693.43324820602</v>
+      </c>
+      <c r="B210" s="26">
+        <v>28.0</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D210" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="G210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="H210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="I210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J210" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="K210" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L210" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O210" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P210" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q210" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="R210" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S210" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T210" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U210" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="W210" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X210" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="Z210" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="21">
+        <v>45693.46103142361</v>
+      </c>
+      <c r="B211" s="22">
+        <v>28.0</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F211" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G211" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H211" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I211" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J211" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K211" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L211" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N211" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O211" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P211" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q211" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R211" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S211" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T211" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U211" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z211" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="25">
+        <v>45693.54734077546</v>
+      </c>
+      <c r="B212" s="26">
+        <v>35.0</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F212" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G212" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H212" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J212" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K212" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O212" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P212" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q212" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R212" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="T212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="U212" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V212" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W212" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X212" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y212" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z212" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="21">
+        <v>45693.56481869213</v>
+      </c>
+      <c r="B213" s="22">
+        <v>30.0</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N213" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O213" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P213" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q213" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R213" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W213" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z213" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="25">
+        <v>45693.635938761574</v>
+      </c>
+      <c r="B214" s="26">
+        <v>22.0</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D214" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F214" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G214" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H214" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I214" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J214" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K214" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L214" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M214" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N214" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O214" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P214" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q214" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="R214" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S214" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T214" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U214" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V214" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W214" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X214" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y214" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z214" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="21">
+        <v>45693.88991293982</v>
+      </c>
+      <c r="B215" s="22">
+        <v>23.0</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F215" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G215" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I215" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K215" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L215" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N215" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O215" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P215" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q215" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W215" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z215" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="25">
+        <v>45693.91404847222</v>
+      </c>
+      <c r="B216" s="26">
+        <v>24.0</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D216" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G216" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H216" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O216" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P216" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q216" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="R216" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S216" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T216" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z216" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="21">
+        <v>45693.922052256945</v>
+      </c>
+      <c r="B217" s="22">
+        <v>24.0</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F217" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G217" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H217" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I217" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J217" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K217" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L217" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M217" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N217" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O217" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P217" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q217" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R217" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S217" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T217" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U217" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V217" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W217" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X217" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y217" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z217" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="25">
+        <v>45693.96250292824</v>
+      </c>
+      <c r="B218" s="26">
+        <v>33.0</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F218" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G218" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H218" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I218" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N218" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O218" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P218" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q218" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R218" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S218" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T218" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U218" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="W218" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X218" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y218" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z218" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="31">
+        <v>45693.968750706015</v>
+      </c>
+      <c r="B219" s="32">
+        <v>26.0</v>
+      </c>
+      <c r="C219" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D219" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F219" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="G219" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H219" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I219" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="J219" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="K219" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L219" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M219" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="N219" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O219" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P219" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q219" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="R219" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="S219" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T219" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U219" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V219" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="W219" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="X219" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y219" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z219" s="34" t="s">
         <v>37</v>
       </c>
     </row>

--- a/yazilim/veri-filtreleme/ham-veriler.xlsx
+++ b/yazilim/veri-filtreleme/ham-veriler.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="173">
   <si>
     <t>Zaman damgası</t>
   </si>
@@ -513,6 +513,24 @@
   <si>
     <t>Zbeü</t>
   </si>
+  <si>
+    <t xml:space="preserve">Adıyaman üniversitesi </t>
+  </si>
+  <si>
+    <t>Şeyh edebali</t>
+  </si>
+  <si>
+    <t>Yunus Emre</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İstanbul Gelişim üniversitesi </t>
+  </si>
+  <si>
+    <t>MCBÜ</t>
+  </si>
 </sst>
 </file>
 
@@ -675,10 +693,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -686,13 +704,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -700,13 +718,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -880,7 +898,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z219" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z236" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="26">
     <tableColumn name="Zaman damgası" id="1"/>
     <tableColumn name="Yaşınız" id="2"/>
@@ -18297,80 +18315,1407 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="31">
+      <c r="A219" s="21">
         <v>45693.968750706015</v>
       </c>
-      <c r="B219" s="32">
+      <c r="B219" s="22">
         <v>26.0</v>
       </c>
-      <c r="C219" s="32" t="s">
+      <c r="C219" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D219" s="32" t="s">
+      <c r="D219" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F219" s="32">
+      <c r="F219" s="22">
         <v>1.0</v>
       </c>
-      <c r="G219" s="32" t="s">
+      <c r="G219" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H219" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I219" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J219" s="32">
+      <c r="H219" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I219" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J219" s="22">
         <v>1.0</v>
       </c>
-      <c r="K219" s="32" t="s">
+      <c r="K219" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L219" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M219" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="N219" s="32" t="s">
+      <c r="L219" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M219" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N219" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O219" s="32" t="s">
+      <c r="O219" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P219" s="32" t="s">
+      <c r="P219" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q219" s="33" t="s">
+      <c r="Q219" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="R219" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="S219" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="T219" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="U219" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="V219" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="W219" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="X219" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y219" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z219" s="34" t="s">
-        <v>37</v>
+      <c r="R219" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="S219" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="T219" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U219" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V219" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="W219" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X219" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y219" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z219" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="25">
+        <v>45694.58350121528</v>
+      </c>
+      <c r="B220" s="26">
+        <v>39.0</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D220" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F220" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="G220" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H220" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I220" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J220" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="K220" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L220" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M220" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N220" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O220" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P220" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q220" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R220" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S220" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T220" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U220" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V220" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W220" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X220" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y220" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z220" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="21">
+        <v>45694.62794259259</v>
+      </c>
+      <c r="B221" s="22">
+        <v>23.0</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F221" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G221" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J221" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K221" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N221" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O221" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P221" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q221" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z221" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="25">
+        <v>45694.70143184028</v>
+      </c>
+      <c r="B222" s="26">
+        <v>28.0</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E222" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G222" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K222" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N222" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O222" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P222" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q222" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="R222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z222" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="21">
+        <v>45695.87235278935</v>
+      </c>
+      <c r="B223" s="22">
+        <v>37.0</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F223" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G223" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H223" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I223" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J223" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K223" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L223" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M223" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N223" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O223" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P223" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q223" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R223" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S223" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T223" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U223" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V223" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W223" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X223" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y223" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z223" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="25">
+        <v>45695.94663869213</v>
+      </c>
+      <c r="B224" s="26">
+        <v>31.0</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D224" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E224" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F224" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G224" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H224" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I224" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J224" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K224" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L224" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M224" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N224" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O224" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P224" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q224" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R224" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S224" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T224" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U224" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V224" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W224" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X224" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y224" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z224" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="21">
+        <v>45695.96558394676</v>
+      </c>
+      <c r="B225" s="22">
+        <v>24.0</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F225" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G225" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I225" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J225" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K225" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L225" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M225" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N225" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O225" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P225" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q225" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R225" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S225" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T225" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U225" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V225" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W225" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X225" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y225" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z225" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="25">
+        <v>45696.874519108795</v>
+      </c>
+      <c r="B226" s="26">
+        <v>26.0</v>
+      </c>
+      <c r="C226" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D226" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F226" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="G226" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H226" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I226" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J226" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K226" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L226" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M226" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N226" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O226" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P226" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q226" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R226" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S226" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T226" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U226" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V226" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W226" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X226" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y226" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z226" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="21">
+        <v>45696.96734449074</v>
+      </c>
+      <c r="B227" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D227" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E227" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F227" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G227" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H227" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I227" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J227" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K227" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L227" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M227" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N227" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O227" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P227" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q227" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R227" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S227" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T227" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U227" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V227" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W227" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X227" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y227" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z227" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="25">
+        <v>45696.97740188657</v>
+      </c>
+      <c r="B228" s="26">
+        <v>24.0</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F228" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G228" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H228" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I228" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J228" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="K228" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L228" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M228" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N228" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O228" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P228" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q228" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R228" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S228" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T228" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U228" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V228" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W228" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="X228" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y228" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z228" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="21">
+        <v>45696.998780995375</v>
+      </c>
+      <c r="B229" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D229" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G229" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H229" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I229" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K229" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L229" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M229" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N229" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O229" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P229" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q229" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T229" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U229" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V229" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W229" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z229" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="25">
+        <v>45697.02598615741</v>
+      </c>
+      <c r="B230" s="26">
+        <v>27.0</v>
+      </c>
+      <c r="C230" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D230" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K230" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N230" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O230" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P230" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q230" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z230" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="21">
+        <v>45697.40406560185</v>
+      </c>
+      <c r="B231" s="22">
+        <v>26.0</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F231" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G231" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J231" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K231" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L231" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N231" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O231" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P231" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q231" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S231" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="T231" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U231" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V231" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W231" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y231" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z231" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="25">
+        <v>45697.44140989584</v>
+      </c>
+      <c r="B232" s="26">
+        <v>28.0</v>
+      </c>
+      <c r="C232" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D232" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="G232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="H232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="I232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N232" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O232" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P232" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q232" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="R232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="X232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z232" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="21">
+        <v>45697.49040565972</v>
+      </c>
+      <c r="B233" s="22">
+        <v>28.0</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D233" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E233" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J233" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K233" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N233" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O233" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P233" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q233" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R233" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S233" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T233" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U233" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V233" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W233" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X233" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y233" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z233" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="25">
+        <v>45697.56344165509</v>
+      </c>
+      <c r="B234" s="26">
+        <v>22.0</v>
+      </c>
+      <c r="C234" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D234" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F234" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G234" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H234" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I234" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J234" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="K234" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L234" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M234" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N234" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O234" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P234" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q234" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R234" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W234" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X234" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z234" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="21">
+        <v>45697.615646631944</v>
+      </c>
+      <c r="B235" s="22">
+        <v>24.0</v>
+      </c>
+      <c r="C235" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D235" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J235" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K235" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L235" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N235" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O235" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P235" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q235" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="S235" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T235" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U235" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V235" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W235" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X235" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="Z235" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="31">
+        <v>45697.65097674768</v>
+      </c>
+      <c r="B236" s="32">
+        <v>30.0</v>
+      </c>
+      <c r="C236" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D236" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F236" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="G236" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H236" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I236" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="J236" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K236" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L236" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M236" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="N236" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O236" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P236" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q236" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="R236" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="S236" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T236" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="U236" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V236" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="W236" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="X236" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y236" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z236" s="34" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
